--- a/src/main/resources/static/1.xlsx
+++ b/src/main/resources/static/1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E2681C-DD5B-4CF7-A4C9-97D3CD1D35C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAFB466-1CEC-3A47-A0C7-FC441FFD0BF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="528" windowWidth="20952" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136F791E-8232-1946-82AC-F914D6C78FFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="1625600"/>
+          <a:ext cx="10058400" cy="3865066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,12 +433,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>1</v>
       </c>
@@ -397,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -405,17 +460,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -424,5 +479,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>